--- a/biology/Botanique/Dichorisandra_hexandra/Dichorisandra_hexandra.xlsx
+++ b/biology/Botanique/Dichorisandra_hexandra/Dichorisandra_hexandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dichorisandra hexandra est une espèce de plante herbacée néotropicale rampante, appartenant à la famille des Commelinaceae, commune des sous-bois humides.
-Elle est connue en Guyane sous le nom de awɨtɨ en Wayãpi (nom qu'elle partage avec Commelina rufipes)[2].
+Elle est connue en Guyane sous le nom de awɨtɨ en Wayãpi (nom qu'elle partage avec Commelina rufipes).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dichorisandra hexandra est employée chez les Wayãpi dans une préparation destinée à porter chance lors de la chasse au Hocco (Crax alector)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichorisandra hexandra est employée chez les Wayãpi dans une préparation destinée à porter chance lors de la chasse au Hocco (Crax alector).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 1. COMMELINA (hexandra) floribus ramofis,camilcis. (Tabula 12.)
 Planta perennis, caules plures, nodoſos, flexuoſos, tripedales, &amp; amplius, ſupra frutices ſparſos, e radice emirrens. Folia alterna, ovata, ſubpetiolata, acuta, ſtriata, integerrima ; petiolo vaginam oblongam, ventricoſam, pilis coronatam, efFormante. Flores ramoſi terminates; racemulis quadrinoris, ad baſim sou amula munitis. Perianthium tripartitum, laciniis ovatis, concavis, marginibus cæruleis, perſiſtens. Corolla ; petala tria, inæqualia, cærulea, ovata, concava, calice majora, intra diviſiiras calici inſerta. Stamina : filamenta ſex, breviſſima : anthers oblongæ, bilocularæ, ferl'îles, utrinque marginatar, tnargine membranaceo, reflexo, violaceo. Pistillum : gernicn ovatum, trigonum. Stylus longus, ſtriatus. Stigma ſubrotundum. 
 Pericarpium: capſula carnoſa, verrucoſa, trigona, trilocularis, trivalvis. Semina folicaria vel bina, in quolibec loculo, quandoque unum abortitur, 
